--- a/testdata/Add_Employee.xlsx
+++ b/testdata/Add_Employee.xlsx
@@ -222,7 +222,7 @@
     <t>Reason Of Leaving</t>
   </si>
   <si>
-    <t>EMP123233</t>
+    <t>EMP123</t>
   </si>
   <si>
     <t>EMP3223</t>
@@ -231,7 +231,7 @@
     <t>Mr</t>
   </si>
   <si>
-    <t>Mallesh</t>
+    <t xml:space="preserve">Sidharth </t>
   </si>
   <si>
     <t>Nagapuri</t>
@@ -243,7 +243,7 @@
     <t>MALE</t>
   </si>
   <si>
-    <t>SINGLE</t>
+    <t>MARRIED</t>
   </si>
   <si>
     <t>OBC</t>
@@ -252,10 +252,10 @@
     <t>B.TECH</t>
   </si>
   <si>
-    <t>ASDFR1236F</t>
-  </si>
-  <si>
-    <t>987634567890</t>
+    <t>ASDFR1236W</t>
+  </si>
+  <si>
+    <t>987634567893</t>
   </si>
   <si>
     <t>HYderabad</t>
@@ -267,7 +267,7 @@
     <t>Telangana</t>
   </si>
   <si>
-    <t>mallesh123@yopmail.com</t>
+    <t>sidarth123@yopmail.com</t>
   </si>
   <si>
     <t>Yes</t>
@@ -14424,8 +14424,8 @@
   <sheetPr/>
   <dimension ref="A1:BK16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z2" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" topLeftCell="AE2" workbookViewId="0">
+      <selection activeCell="AJ10" sqref="AJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -14674,7 +14674,7 @@
         <v>68</v>
       </c>
       <c r="I2" s="3">
-        <v>35350</v>
+        <v>36080</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>69</v>
@@ -14707,7 +14707,7 @@
         <v>505011</v>
       </c>
       <c r="T2" s="1">
-        <v>9879879886</v>
+        <v>9988776666</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>76</v>
@@ -14738,9 +14738,6 @@
       </c>
       <c r="AE2" s="1">
         <v>14</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>18</v>
       </c>
       <c r="AG2" s="1" t="s">
         <v>81</v>
@@ -14957,7 +14954,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="Z2" r:id="rId1" display="mallesh123@yopmail.com"/>
+    <hyperlink ref="Z2" r:id="rId1" display="sidarth123@yopmail.com" tooltip="mailto:sidarth123@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
